--- a/names.xlsx
+++ b/names.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+  <si>
+    <t>lp-n</t>
+  </si>
   <si>
     <t>onD-month-bl-n</t>
   </si>
@@ -64,6 +67,18 @@
     <t>ptp-c</t>
   </si>
   <si>
+    <t>tax-bl-n</t>
+  </si>
+  <si>
+    <t>tax-blm-n</t>
+  </si>
+  <si>
+    <t>tax-n</t>
+  </si>
+  <si>
+    <t>taxyr-n</t>
+  </si>
+  <si>
     <t>bdrms-bl-n</t>
   </si>
   <si>
@@ -157,7 +172,10 @@
     <t>gatp-GrAttached-b</t>
   </si>
   <si>
-    <t>depth-n</t>
+    <t>depth-bl-n</t>
+  </si>
+  <si>
+    <t>depth-blm-n</t>
   </si>
   <si>
     <t>flt-n</t>
@@ -187,9 +205,21 @@
     <t>fce-c</t>
   </si>
   <si>
+    <t>sqft-bl-n</t>
+  </si>
+  <si>
+    <t>sqft-blm-n</t>
+  </si>
+  <si>
     <t>sqft-n</t>
   </si>
   <si>
+    <t>bltYr-bl-n</t>
+  </si>
+  <si>
+    <t>bltYr-blm-n</t>
+  </si>
+  <si>
     <t>bltYr-n</t>
   </si>
   <si>
@@ -199,6 +229,9 @@
     <t>sp</t>
   </si>
   <si>
+    <t>fce_SE</t>
+  </si>
+  <si>
     <t>fce_E</t>
   </si>
   <si>
@@ -211,7 +244,7 @@
     <t>laundry_lev_Upper</t>
   </si>
   <si>
-    <t>lst_Sus</t>
+    <t>ptype2-l-c</t>
   </si>
   <si>
     <t>gatp_Built-In</t>
@@ -229,7 +262,7 @@
     <t>heat_Radiant</t>
   </si>
   <si>
-    <t>lst_Lsd</t>
+    <t>lst_Dft</t>
   </si>
   <si>
     <t>ac_Wall Unit</t>
@@ -247,21 +280,33 @@
     <t>den_fr_N</t>
   </si>
   <si>
+    <t>fce_SW</t>
+  </si>
+  <si>
     <t>heat_Fan Coil</t>
   </si>
   <si>
+    <t>mfee-bl-n</t>
+  </si>
+  <si>
+    <t>ptp_Condo Apt</t>
+  </si>
+  <si>
     <t>heat_inc_Y</t>
   </si>
   <si>
+    <t>lst_Sld</t>
+  </si>
+  <si>
     <t>zip-c</t>
   </si>
   <si>
-    <t>lpr-n</t>
-  </si>
-  <si>
     <t>ac_Central Air</t>
   </si>
   <si>
+    <t>lp</t>
+  </si>
+  <si>
     <t>prkg_inc_Y</t>
   </si>
   <si>
@@ -274,18 +319,24 @@
     <t>offD</t>
   </si>
   <si>
+    <t>fce_NE</t>
+  </si>
+  <si>
     <t>heat_Forced Air</t>
   </si>
   <si>
+    <t>fce_Ns</t>
+  </si>
+  <si>
     <t>lst-c</t>
   </si>
   <si>
-    <t>taxyr</t>
-  </si>
-  <si>
     <t>heat_Heat Pump</t>
   </si>
   <si>
+    <t>ptp_Co-Op Apt</t>
+  </si>
+  <si>
     <t>den_fr_Y</t>
   </si>
   <si>
@@ -295,9 +346,6 @@
     <t>water_inc_Y</t>
   </si>
   <si>
-    <t>ptp_Detached</t>
-  </si>
-  <si>
     <t>fce_N</t>
   </si>
   <si>
@@ -310,12 +358,6 @@
     <t>offD-season-n</t>
   </si>
   <si>
-    <t>pvt_ent-b</t>
-  </si>
-  <si>
-    <t>lst_Ter</t>
-  </si>
-  <si>
     <t>pets-n</t>
   </si>
   <si>
@@ -325,6 +367,9 @@
     <t>gatp_Detached</t>
   </si>
   <si>
+    <t>fce_Nw</t>
+  </si>
+  <si>
     <t>offD-month-n</t>
   </si>
   <si>
@@ -337,7 +382,7 @@
     <t>daddr_N</t>
   </si>
   <si>
-    <t>taxyr-n</t>
+    <t>fce_Ne</t>
   </si>
   <si>
     <t>sldd</t>
@@ -346,36 +391,57 @@
     <t>laundry_lev-n</t>
   </si>
   <si>
+    <t>mfee-blm-n</t>
+  </si>
+  <si>
     <t>hydro_inc_Y</t>
   </si>
   <si>
+    <t>heat_Water</t>
+  </si>
+  <si>
     <t>all_inc_Y</t>
   </si>
   <si>
     <t>daddr_Y</t>
   </si>
   <si>
+    <t>ptp_Comm Element Condo</t>
+  </si>
+  <si>
+    <t>fce_Se</t>
+  </si>
+  <si>
     <t>cac_inc_Y</t>
   </si>
   <si>
-    <t>tax</t>
-  </si>
-  <si>
     <t>prkg_inc_N</t>
   </si>
   <si>
+    <t>fce_EW</t>
+  </si>
+  <si>
+    <t>fce_NW</t>
+  </si>
+  <si>
     <t>gatp_Carport</t>
   </si>
   <si>
-    <t>ptp_Link</t>
-  </si>
-  <si>
     <t>gatp_Other</t>
   </si>
   <si>
     <t>rltr-c</t>
   </si>
   <si>
+    <t>insur_bldg-b</t>
+  </si>
+  <si>
+    <t>gatp_Surface</t>
+  </si>
+  <si>
+    <t>ac_Window Unit</t>
+  </si>
+  <si>
     <t>gatp_Attached</t>
   </si>
   <si>
@@ -385,16 +451,19 @@
     <t>comel_inc_Y</t>
   </si>
   <si>
+    <t>fce_Sw</t>
+  </si>
+  <si>
     <t>gatp_None</t>
   </si>
   <si>
     <t>ac_Other</t>
   </si>
   <si>
-    <t>lpr</t>
-  </si>
-  <si>
-    <t>tax-n</t>
+    <t>gatp_Undergrnd</t>
+  </si>
+  <si>
+    <t>fce_Ew</t>
   </si>
   <si>
     <t>fce_S</t>
@@ -758,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,6 +1870,190 @@
         <v>128</v>
       </c>
     </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/names.xlsx
+++ b/names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>lp-n</t>
   </si>
@@ -154,6 +154,9 @@
     <t>bsmtFin-b</t>
   </si>
   <si>
+    <t>bsmtNON-b</t>
+  </si>
+  <si>
     <t>gr-bl-n</t>
   </si>
   <si>
@@ -187,9 +190,18 @@
     <t>feat-c</t>
   </si>
   <si>
+    <t>featHospital-b</t>
+  </si>
+  <si>
     <t>featPark-b</t>
   </si>
   <si>
+    <t>featPublicTransit-b</t>
+  </si>
+  <si>
+    <t>featSchool-b</t>
+  </si>
+  <si>
     <t>constr-c</t>
   </si>
   <si>
@@ -205,6 +217,18 @@
     <t>fce-c</t>
   </si>
   <si>
+    <t>fceE-b</t>
+  </si>
+  <si>
+    <t>fceN-b</t>
+  </si>
+  <si>
+    <t>fceS-b</t>
+  </si>
+  <si>
+    <t>fceW-b</t>
+  </si>
+  <si>
     <t>sqft-bl-n</t>
   </si>
   <si>
@@ -223,250 +247,337 @@
     <t>bltYr-n</t>
   </si>
   <si>
+    <t>park_fac-c</t>
+  </si>
+  <si>
+    <t>gatp_Detached</t>
+  </si>
+  <si>
+    <t>insur_bldg_N</t>
+  </si>
+  <si>
+    <t>laundry_lev_Upper</t>
+  </si>
+  <si>
+    <t>laundry_lev_Main</t>
+  </si>
+  <si>
+    <t>comel_inc_N</t>
+  </si>
+  <si>
+    <t>ac_Window Unit</t>
+  </si>
+  <si>
+    <t>fce_NE</t>
+  </si>
+  <si>
+    <t>heat_Fan Coil</t>
+  </si>
+  <si>
+    <t>all_inc_Y</t>
+  </si>
+  <si>
+    <t>cac_inc_Y</t>
+  </si>
+  <si>
+    <t>heat_inc_Y</t>
+  </si>
+  <si>
+    <t>all_inc_N</t>
+  </si>
+  <si>
+    <t>hydro_inc_Y</t>
+  </si>
+  <si>
+    <t>zip-c</t>
+  </si>
+  <si>
+    <t>heat_Other</t>
+  </si>
+  <si>
+    <t>fce_EW</t>
+  </si>
+  <si>
+    <t>gatp_Other</t>
+  </si>
+  <si>
+    <t>lst_Dft</t>
+  </si>
+  <si>
+    <t>park_fac_Mutual</t>
+  </si>
+  <si>
+    <t>lkr_Exclusive</t>
+  </si>
+  <si>
+    <t>fce_SE</t>
+  </si>
+  <si>
+    <t>rmBltYr</t>
+  </si>
+  <si>
+    <t>pets-n</t>
+  </si>
+  <si>
+    <t>heat_Baseboard</t>
+  </si>
+  <si>
+    <t>pvt_ent_Y</t>
+  </si>
+  <si>
+    <t>mfee-bl-n</t>
+  </si>
+  <si>
+    <t>prkg_inc_N</t>
+  </si>
+  <si>
+    <t>sldd</t>
+  </si>
+  <si>
+    <t>lkr_None</t>
+  </si>
+  <si>
+    <t>den_fr_N</t>
+  </si>
+  <si>
+    <t>water_inc_N</t>
+  </si>
+  <si>
+    <t>lst-c</t>
+  </si>
+  <si>
+    <t>comel_inc_Y</t>
+  </si>
+  <si>
+    <t>heat_inc_N</t>
+  </si>
+  <si>
+    <t>lkr_Owned</t>
+  </si>
+  <si>
+    <t>lkr_Ensuite+Owned</t>
+  </si>
+  <si>
+    <t>ac_Central Air</t>
+  </si>
+  <si>
+    <t>heat_Water</t>
+  </si>
+  <si>
+    <t>ac_Other</t>
+  </si>
+  <si>
+    <t>gatp_Surface</t>
+  </si>
+  <si>
+    <t>offD-month-n</t>
+  </si>
+  <si>
+    <t>park_fac_Surface</t>
+  </si>
+  <si>
+    <t>heat_Forced Air</t>
+  </si>
+  <si>
+    <t>fce_S</t>
+  </si>
+  <si>
+    <t>ac_Wall Unit</t>
+  </si>
+  <si>
+    <t>rmSqft</t>
+  </si>
+  <si>
     <t>fce_W</t>
   </si>
   <si>
+    <t>ptp_Co-Op Apt</t>
+  </si>
+  <si>
+    <t>park_fac_Undergrnd</t>
+  </si>
+  <si>
+    <t>den_fr_Y</t>
+  </si>
+  <si>
+    <t>lkr_Common</t>
+  </si>
+  <si>
+    <t>lkr_Ensuite+Exclusive</t>
+  </si>
+  <si>
+    <t>ptype2-l-c</t>
+  </si>
+  <si>
+    <t>sldd-dom-n</t>
+  </si>
+  <si>
+    <t>offD-year-n</t>
+  </si>
+  <si>
+    <t>fce_Ne</t>
+  </si>
+  <si>
     <t>sp</t>
   </si>
   <si>
-    <t>fce_SE</t>
+    <t>fce_Sw</t>
+  </si>
+  <si>
+    <t>park_fac_Private</t>
+  </si>
+  <si>
+    <t>offD</t>
+  </si>
+  <si>
+    <t>water_inc_Y</t>
+  </si>
+  <si>
+    <t>fce_Se</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>lkr-c</t>
+  </si>
+  <si>
+    <t>heat_Heat Pump</t>
+  </si>
+  <si>
+    <t>laundry-lndryEnsuite-b</t>
+  </si>
+  <si>
+    <t>prkg_inc_Y</t>
+  </si>
+  <si>
+    <t>fce_N</t>
+  </si>
+  <si>
+    <t>ptp_Condo Apt</t>
+  </si>
+  <si>
+    <t>pets_Restrict</t>
+  </si>
+  <si>
+    <t>lkr_Ensuite</t>
+  </si>
+  <si>
+    <t>comel_inc-b</t>
+  </si>
+  <si>
+    <t>gatp_Carport</t>
+  </si>
+  <si>
+    <t>hydro_inc_N</t>
+  </si>
+  <si>
+    <t>pvt_ent_N</t>
+  </si>
+  <si>
+    <t>laundry_Shared</t>
+  </si>
+  <si>
+    <t>mfee-blm-n</t>
+  </si>
+  <si>
+    <t>park_fac_None</t>
+  </si>
+  <si>
+    <t>laundry_None</t>
+  </si>
+  <si>
+    <t>prkg_inc-b</t>
+  </si>
+  <si>
+    <t>laundry-c</t>
+  </si>
+  <si>
+    <t>laundry_lev-n</t>
+  </si>
+  <si>
+    <t>pets_N</t>
+  </si>
+  <si>
+    <t>fce_Ns</t>
+  </si>
+  <si>
+    <t>heat_Radiant</t>
+  </si>
+  <si>
+    <t>fce_NW</t>
+  </si>
+  <si>
+    <t>gatp_Attached</t>
+  </si>
+  <si>
+    <t>gatp_None</t>
+  </si>
+  <si>
+    <t>laundry_In Area</t>
+  </si>
+  <si>
+    <t>lst_Sld</t>
+  </si>
+  <si>
+    <t>insur_bldg_Y</t>
+  </si>
+  <si>
+    <t>cac_inc_N</t>
+  </si>
+  <si>
+    <t>rltr-c</t>
+  </si>
+  <si>
+    <t>status_U</t>
+  </si>
+  <si>
+    <t>park_fac_Other</t>
+  </si>
+  <si>
+    <t>daddr_Y</t>
+  </si>
+  <si>
+    <t>laundry_lev_Lower</t>
+  </si>
+  <si>
+    <t>park_fac_Facilities</t>
+  </si>
+  <si>
+    <t>insur_bldg-b</t>
+  </si>
+  <si>
+    <t>ac_None</t>
+  </si>
+  <si>
+    <t>offD-season-n</t>
+  </si>
+  <si>
+    <t>daddr_N</t>
   </si>
   <si>
     <t>fce_E</t>
   </si>
   <si>
-    <t>water_inc_N</t>
-  </si>
-  <si>
-    <t>hydro_inc_N</t>
-  </si>
-  <si>
-    <t>laundry_lev_Upper</t>
-  </si>
-  <si>
-    <t>ptype2-l-c</t>
+    <t>laundry_Ensuite</t>
+  </si>
+  <si>
+    <t>fce_Ew</t>
+  </si>
+  <si>
+    <t>fce_Nw</t>
+  </si>
+  <si>
+    <t>gatp_Undergrnd</t>
   </si>
   <si>
     <t>gatp_Built-In</t>
   </si>
   <si>
-    <t>rmSqft</t>
-  </si>
-  <si>
-    <t>ac_None</t>
-  </si>
-  <si>
-    <t>all_inc_N</t>
-  </si>
-  <si>
-    <t>heat_Radiant</t>
-  </si>
-  <si>
-    <t>lst_Dft</t>
-  </si>
-  <si>
-    <t>ac_Wall Unit</t>
-  </si>
-  <si>
-    <t>heat_inc_N</t>
-  </si>
-  <si>
-    <t>heat_Other</t>
-  </si>
-  <si>
-    <t>comel_inc-b</t>
-  </si>
-  <si>
-    <t>den_fr_N</t>
-  </si>
-  <si>
     <t>fce_SW</t>
   </si>
   <si>
-    <t>heat_Fan Coil</t>
-  </si>
-  <si>
-    <t>mfee-bl-n</t>
-  </si>
-  <si>
-    <t>ptp_Condo Apt</t>
-  </si>
-  <si>
-    <t>heat_inc_Y</t>
-  </si>
-  <si>
-    <t>lst_Sld</t>
-  </si>
-  <si>
-    <t>zip-c</t>
-  </si>
-  <si>
-    <t>ac_Central Air</t>
-  </si>
-  <si>
-    <t>lp</t>
-  </si>
-  <si>
-    <t>prkg_inc_Y</t>
-  </si>
-  <si>
-    <t>cac_inc_N</t>
-  </si>
-  <si>
-    <t>prkg_inc-b</t>
-  </si>
-  <si>
-    <t>offD</t>
-  </si>
-  <si>
-    <t>fce_NE</t>
-  </si>
-  <si>
-    <t>heat_Forced Air</t>
-  </si>
-  <si>
-    <t>fce_Ns</t>
-  </si>
-  <si>
-    <t>lst-c</t>
-  </si>
-  <si>
-    <t>heat_Heat Pump</t>
-  </si>
-  <si>
-    <t>ptp_Co-Op Apt</t>
-  </si>
-  <si>
-    <t>den_fr_Y</t>
-  </si>
-  <si>
-    <t>offD-year-n</t>
-  </si>
-  <si>
-    <t>water_inc_Y</t>
-  </si>
-  <si>
-    <t>fce_N</t>
-  </si>
-  <si>
-    <t>comel_inc_N</t>
-  </si>
-  <si>
-    <t>heat_Baseboard</t>
-  </si>
-  <si>
-    <t>offD-season-n</t>
-  </si>
-  <si>
-    <t>pets-n</t>
-  </si>
-  <si>
-    <t>sldd-dom-n</t>
-  </si>
-  <si>
-    <t>gatp_Detached</t>
-  </si>
-  <si>
-    <t>fce_Nw</t>
-  </si>
-  <si>
-    <t>offD-month-n</t>
-  </si>
-  <si>
-    <t>laundry_lev_Lower</t>
-  </si>
-  <si>
-    <t>laundry_lev_Main</t>
-  </si>
-  <si>
-    <t>daddr_N</t>
-  </si>
-  <si>
-    <t>fce_Ne</t>
-  </si>
-  <si>
-    <t>sldd</t>
-  </si>
-  <si>
-    <t>laundry_lev-n</t>
-  </si>
-  <si>
-    <t>mfee-blm-n</t>
-  </si>
-  <si>
-    <t>hydro_inc_Y</t>
-  </si>
-  <si>
-    <t>heat_Water</t>
-  </si>
-  <si>
-    <t>all_inc_Y</t>
-  </si>
-  <si>
-    <t>daddr_Y</t>
-  </si>
-  <si>
     <t>ptp_Comm Element Condo</t>
-  </si>
-  <si>
-    <t>fce_Se</t>
-  </si>
-  <si>
-    <t>cac_inc_Y</t>
-  </si>
-  <si>
-    <t>prkg_inc_N</t>
-  </si>
-  <si>
-    <t>fce_EW</t>
-  </si>
-  <si>
-    <t>fce_NW</t>
-  </si>
-  <si>
-    <t>gatp_Carport</t>
-  </si>
-  <si>
-    <t>gatp_Other</t>
-  </si>
-  <si>
-    <t>rltr-c</t>
-  </si>
-  <si>
-    <t>insur_bldg-b</t>
-  </si>
-  <si>
-    <t>gatp_Surface</t>
-  </si>
-  <si>
-    <t>ac_Window Unit</t>
-  </si>
-  <si>
-    <t>gatp_Attached</t>
-  </si>
-  <si>
-    <t>status_U</t>
-  </si>
-  <si>
-    <t>comel_inc_Y</t>
-  </si>
-  <si>
-    <t>fce_Sw</t>
-  </si>
-  <si>
-    <t>gatp_None</t>
-  </si>
-  <si>
-    <t>ac_Other</t>
-  </si>
-  <si>
-    <t>gatp_Undergrnd</t>
-  </si>
-  <si>
-    <t>fce_Ew</t>
-  </si>
-  <si>
-    <t>fce_S</t>
   </si>
   <si>
     <t>sp-n</t>
@@ -827,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2054,6 +2165,302 @@
         <v>151</v>
       </c>
     </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/names.xlsx
+++ b/names.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>lp-n</t>
+  </si>
+  <si>
+    <t>onD-month-n</t>
+  </si>
+  <si>
+    <t>onD-season-n</t>
+  </si>
+  <si>
+    <t>onD-week-n</t>
+  </si>
+  <si>
+    <t>onD-year-n</t>
+  </si>
   <si>
     <t>onD-month-bl-n</t>
   </si>
@@ -22,18 +37,6 @@
     <t>onD-month-blm-n</t>
   </si>
   <si>
-    <t>onD-month-n</t>
-  </si>
-  <si>
-    <t>onD-season-n</t>
-  </si>
-  <si>
-    <t>onD-week-n</t>
-  </si>
-  <si>
-    <t>onD-year-n</t>
-  </si>
-  <si>
     <t>cmty-bl-n</t>
   </si>
   <si>
@@ -64,25 +67,40 @@
     <t>ptp-c</t>
   </si>
   <si>
+    <t>tax-n</t>
+  </si>
+  <si>
+    <t>taxyr-n</t>
+  </si>
+  <si>
+    <t>tax-bl-n</t>
+  </si>
+  <si>
+    <t>tax-blm-n</t>
+  </si>
+  <si>
+    <t>bdrms-n</t>
+  </si>
+  <si>
     <t>bdrms-bl-n</t>
   </si>
   <si>
     <t>bdrms-blm-n</t>
   </si>
   <si>
-    <t>bdrms-n</t>
-  </si>
-  <si>
     <t>tbdrms-n</t>
   </si>
   <si>
+    <t>br_plus-n</t>
+  </si>
+  <si>
     <t>br_plus-bl-n</t>
   </si>
   <si>
     <t>br_plus-blm-n</t>
   </si>
   <si>
-    <t>br_plus-n</t>
+    <t>bthrms-n</t>
   </si>
   <si>
     <t>bthrms-bl-n</t>
@@ -91,7 +109,7 @@
     <t>bthrms-blm-n</t>
   </si>
   <si>
-    <t>bthrms-n</t>
+    <t>kch-n</t>
   </si>
   <si>
     <t>kch-bl-n</t>
@@ -100,9 +118,6 @@
     <t>kch-blm-n</t>
   </si>
   <si>
-    <t>kch-n</t>
-  </si>
-  <si>
     <t>bths-pc0-n</t>
   </si>
   <si>
@@ -112,6 +127,9 @@
     <t>bths-pc2-n</t>
   </si>
   <si>
+    <t>bths-pc3-n</t>
+  </si>
+  <si>
     <t>bths-t0-n</t>
   </si>
   <si>
@@ -121,6 +139,9 @@
     <t>bths-t2-n</t>
   </si>
   <si>
+    <t>bths-t3-n</t>
+  </si>
+  <si>
     <t>rms-p_area-n</t>
   </si>
   <si>
@@ -139,7 +160,7 @@
     <t>bsmtFin-b</t>
   </si>
   <si>
-    <t>bsmtNON-b</t>
+    <t>gr-n</t>
   </si>
   <si>
     <t>gr-bl-n</t>
@@ -148,9 +169,6 @@
     <t>gr-blm-n</t>
   </si>
   <si>
-    <t>gr-n</t>
-  </si>
-  <si>
     <t>tgr-n</t>
   </si>
   <si>
@@ -163,61 +181,73 @@
     <t>depth-n</t>
   </si>
   <si>
+    <t>depth-bl-n</t>
+  </si>
+  <si>
+    <t>depth-blm-n</t>
+  </si>
+  <si>
     <t>flt-n</t>
   </si>
   <si>
+    <t>flt-bl-n</t>
+  </si>
+  <si>
+    <t>flt-blm-n</t>
+  </si>
+  <si>
+    <t>heat-c</t>
+  </si>
+  <si>
     <t>heat-htForceAir-b</t>
   </si>
   <si>
+    <t>heat_inc-b</t>
+  </si>
+  <si>
     <t>feat-c</t>
   </si>
   <si>
-    <t>featHospital-b</t>
-  </si>
-  <si>
     <t>featPark-b</t>
   </si>
   <si>
-    <t>featPublicTransit-b</t>
-  </si>
-  <si>
-    <t>featSchool-b</t>
-  </si>
-  <si>
     <t>constr-c</t>
   </si>
   <si>
     <t>constr-ConstrBrick-b</t>
   </si>
   <si>
+    <t>ac-c</t>
+  </si>
+  <si>
     <t>acCentral-b</t>
   </si>
   <si>
     <t>den_fr-b</t>
   </si>
   <si>
+    <t>ens_lndry-b</t>
+  </si>
+  <si>
     <t>fce-c</t>
   </si>
   <si>
-    <t>fceE-b</t>
-  </si>
-  <si>
-    <t>fceN-b</t>
-  </si>
-  <si>
-    <t>fceS-b</t>
-  </si>
-  <si>
-    <t>fceW-b</t>
-  </si>
-  <si>
     <t>sqft-n</t>
   </si>
   <si>
+    <t>sqft-bl-n</t>
+  </si>
+  <si>
+    <t>sqft-blm-n</t>
+  </si>
+  <si>
     <t>bltYr-n</t>
   </si>
   <si>
-    <t>park_fac-c</t>
+    <t>bltYr-bl-n</t>
+  </si>
+  <si>
+    <t>bltYr-blm-n</t>
   </si>
   <si>
     <t>sp-n</t>
@@ -578,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,6 +1171,86 @@
         <v>68</v>
       </c>
     </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/names.xlsx
+++ b/names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>lp-n</t>
   </si>
@@ -157,9 +157,42 @@
     <t>bsmt-c</t>
   </si>
   <si>
+    <t>bsmtApt-b</t>
+  </si>
+  <si>
+    <t>bsmtCrw-b</t>
+  </si>
+  <si>
     <t>bsmtFin-b</t>
   </si>
   <si>
+    <t>bsmtFull-b</t>
+  </si>
+  <si>
+    <t>bsmtHalf-b</t>
+  </si>
+  <si>
+    <t>bsmtNON-b</t>
+  </si>
+  <si>
+    <t>bsmtPrt-b</t>
+  </si>
+  <si>
+    <t>bsmtSep-b</t>
+  </si>
+  <si>
+    <t>bsmtUnFin-b</t>
+  </si>
+  <si>
+    <t>bsmtWO-b</t>
+  </si>
+  <si>
+    <t>bsmtWU-b</t>
+  </si>
+  <si>
+    <t>bsmtY-b</t>
+  </si>
+  <si>
     <t>gr-n</t>
   </si>
   <si>
@@ -178,6 +211,42 @@
     <t>gatp-GrAttached-b</t>
   </si>
   <si>
+    <t>gatp-GrBoulevard-b</t>
+  </si>
+  <si>
+    <t>gatp-GrBuiltIn-b</t>
+  </si>
+  <si>
+    <t>gatp-GrCarport-b</t>
+  </si>
+  <si>
+    <t>gatp-GrDetached-b</t>
+  </si>
+  <si>
+    <t>gatp-GrInOut-b</t>
+  </si>
+  <si>
+    <t>gatp-GrNone-b</t>
+  </si>
+  <si>
+    <t>gatp-GrOther-b</t>
+  </si>
+  <si>
+    <t>gatp-GrReserved-b</t>
+  </si>
+  <si>
+    <t>gatp-GrSingleDetached-b</t>
+  </si>
+  <si>
+    <t>gatp-GrSurface-b</t>
+  </si>
+  <si>
+    <t>gatp-GrUnderground-b</t>
+  </si>
+  <si>
+    <t>gatp-GrVisitor-b</t>
+  </si>
+  <si>
     <t>depth-n</t>
   </si>
   <si>
@@ -190,39 +259,207 @@
     <t>flt-n</t>
   </si>
   <si>
-    <t>flt-bl-n</t>
-  </si>
-  <si>
-    <t>flt-blm-n</t>
-  </si>
-  <si>
     <t>heat-c</t>
   </si>
   <si>
+    <t>heat-htBase-b</t>
+  </si>
+  <si>
+    <t>heat-htCoil-b</t>
+  </si>
+  <si>
     <t>heat-htForceAir-b</t>
   </si>
   <si>
+    <t>heat-htGas-b</t>
+  </si>
+  <si>
+    <t>heat-htHeatPump-b</t>
+  </si>
+  <si>
+    <t>heat-htHotWater-b</t>
+  </si>
+  <si>
+    <t>heat-htOther-b</t>
+  </si>
+  <si>
+    <t>heat-htRadiant-b</t>
+  </si>
+  <si>
+    <t>heat-htSolar-b</t>
+  </si>
+  <si>
+    <t>heat-htWater-b</t>
+  </si>
+  <si>
     <t>heat_inc-b</t>
   </si>
   <si>
     <t>feat-c</t>
   </si>
   <si>
+    <t>featArtsCentre-b</t>
+  </si>
+  <si>
+    <t>featBeach-b</t>
+  </si>
+  <si>
+    <t>featCampground-b</t>
+  </si>
+  <si>
+    <t>featClearView-b</t>
+  </si>
+  <si>
+    <t>featCulDeSac-b</t>
+  </si>
+  <si>
+    <t>featElectricCarCharg-b</t>
+  </si>
+  <si>
+    <t>featFencedYard-b</t>
+  </si>
+  <si>
+    <t>featGolf-b</t>
+  </si>
+  <si>
+    <t>featGreenbelt-b</t>
+  </si>
+  <si>
+    <t>featHospital-b</t>
+  </si>
+  <si>
+    <t>featIsland-b</t>
+  </si>
+  <si>
+    <t>featLakeAccess-b</t>
+  </si>
+  <si>
+    <t>featLakeBacklot-b</t>
+  </si>
+  <si>
+    <t>featLakePond-b</t>
+  </si>
+  <si>
+    <t>featLevel-b</t>
+  </si>
+  <si>
+    <t>featLibrary-b</t>
+  </si>
+  <si>
+    <t>featMajorHighway-b</t>
+  </si>
+  <si>
+    <t>featMarina-b</t>
+  </si>
+  <si>
+    <t>featOther-b</t>
+  </si>
+  <si>
     <t>featPark-b</t>
   </si>
   <si>
+    <t>featPartCleared-b</t>
+  </si>
+  <si>
+    <t>featPlaceOfWorship-b</t>
+  </si>
+  <si>
+    <t>featPublicTransit-b</t>
+  </si>
+  <si>
+    <t>featRavine-b</t>
+  </si>
+  <si>
+    <t>featRecCentre-b</t>
+  </si>
+  <si>
+    <t>featRiverStream-b</t>
+  </si>
+  <si>
+    <t>featRolling-b</t>
+  </si>
+  <si>
+    <t>featSchool-b</t>
+  </si>
+  <si>
+    <t>featSchoolBusRoute-b</t>
+  </si>
+  <si>
+    <t>featSkiing-b</t>
+  </si>
+  <si>
+    <t>featSloping-b</t>
+  </si>
+  <si>
+    <t>featTerraced-b</t>
+  </si>
+  <si>
+    <t>featTiled-b</t>
+  </si>
+  <si>
+    <t>featWaterfront-b</t>
+  </si>
+  <si>
+    <t>featWood-b</t>
+  </si>
+  <si>
     <t>constr-c</t>
   </si>
   <si>
+    <t>constr-ConstrAlum-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrBoard-b</t>
+  </si>
+  <si>
     <t>constr-ConstrBrick-b</t>
   </si>
   <si>
+    <t>constr-ConstrConc-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrInsul-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrMetal-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrOther-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrShing-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrStone-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrStucco-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrVinyl-b</t>
+  </si>
+  <si>
+    <t>constr-ConstrWood-b</t>
+  </si>
+  <si>
     <t>ac-c</t>
   </si>
   <si>
     <t>acCentral-b</t>
   </si>
   <si>
+    <t>acNON-b</t>
+  </si>
+  <si>
+    <t>acOther-b</t>
+  </si>
+  <si>
+    <t>acPart-b</t>
+  </si>
+  <si>
+    <t>acY-b</t>
+  </si>
+  <si>
     <t>den_fr-b</t>
   </si>
   <si>
@@ -232,6 +469,18 @@
     <t>fce-c</t>
   </si>
   <si>
+    <t>fceE-b</t>
+  </si>
+  <si>
+    <t>fceN-b</t>
+  </si>
+  <si>
+    <t>fceS-b</t>
+  </si>
+  <si>
+    <t>fceW-b</t>
+  </si>
+  <si>
     <t>sqft-n</t>
   </si>
   <si>
@@ -248,6 +497,30 @@
   </si>
   <si>
     <t>bltYr-blm-n</t>
+  </si>
+  <si>
+    <t>park_fac-c</t>
+  </si>
+  <si>
+    <t>park_fac-prkFacility-b</t>
+  </si>
+  <si>
+    <t>park_fac-prkMutual-b</t>
+  </si>
+  <si>
+    <t>park_fac-prkNone-b</t>
+  </si>
+  <si>
+    <t>park_fac-prkOther-b</t>
+  </si>
+  <si>
+    <t>park_fac-prkPrivate-b</t>
+  </si>
+  <si>
+    <t>park_fac-prkSurface-b</t>
+  </si>
+  <si>
+    <t>park_fac-prkUnderground-b</t>
   </si>
   <si>
     <t>sp-n</t>
@@ -608,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,6 +1524,734 @@
         <v>78</v>
       </c>
     </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
